--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>5800</v>
+        <v>8600</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>18200</v>
+        <v>15400</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1002,9 +1002,15 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="1"/>
+      <c r="B7" s="3">
+        <v>45308</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
       <c r="E7" s="1">
         <v>35</v>
       </c>
@@ -1028,9 +1034,15 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="1"/>
+      <c r="B8" s="3">
+        <v>45316</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
       <c r="E8" s="1">
         <v>36</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>8600</v>
+        <v>10000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>15400</v>
+        <v>14000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1066,9 +1066,15 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="1"/>
+      <c r="B9" s="3">
+        <v>45322</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
       <c r="E9" s="1">
         <v>37</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>10000</v>
+        <v>11400</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>14000</v>
+        <v>12600</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1098,9 +1098,15 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="1"/>
+      <c r="B10" s="3">
+        <v>45329</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
       <c r="E10" s="1">
         <v>38</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>11400</v>
+        <v>12800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>12600</v>
+        <v>11200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1130,9 +1130,15 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="1"/>
+      <c r="B11" s="3">
+        <v>45336</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
       <c r="E11" s="1">
         <v>39</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>12800</v>
+        <v>14200</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>11200</v>
+        <v>9800</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1162,9 +1162,15 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="1"/>
+      <c r="B12" s="3">
+        <v>45343</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
       <c r="E12" s="1">
         <v>40</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>14200</v>
+        <v>15600</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>9800</v>
+        <v>8400</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1194,9 +1194,15 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="1"/>
+      <c r="B13" s="3">
+        <v>45350</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
       <c r="E13" s="1">
         <v>41</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -328,7 +328,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -606,7 +606,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>15600</v>
+        <v>17000</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>8400</v>
+        <v>7000</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1226,9 +1226,15 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="1"/>
+      <c r="B14" s="3">
+        <v>45357</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
       <c r="E14" s="1">
         <v>42</v>
       </c>

--- a/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
+++ b/LoanOfficer-A/2023/10 Keisham Kamala.xlsx
@@ -778,7 +778,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -824,7 +824,7 @@
       </c>
       <c r="K1" s="10">
         <f>G1-K2</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="5"/>
@@ -833,7 +833,7 @@
       </c>
       <c r="O1" s="8">
         <f>SUM(C3:C32)+SUM(G3:G32)+SUM(K3:K32)+SUM(O3:O32)</f>
-        <v>17000</v>
+        <v>19800</v>
       </c>
       <c r="P1" s="6"/>
     </row>
@@ -857,7 +857,7 @@
       </c>
       <c r="K2" s="9">
         <f>SUM(D3:D32)+SUM(H3:H32)+SUM(L3:L32)+SUM(P3:P32)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="L2" s="6"/>
       <c r="M2" s="5"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="O2" s="11">
         <f>C2-O1</f>
-        <v>7000</v>
+        <v>4200</v>
       </c>
       <c r="P2" s="6"/>
     </row>
@@ -1258,9 +1258,15 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="1"/>
+      <c r="B15" s="3">
+        <v>45364</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
       <c r="E15" s="1">
         <v>43</v>
       </c>
@@ -1284,9 +1290,15 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="1"/>
+      <c r="B16" s="3">
+        <v>45371</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1400</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
       <c r="E16" s="1">
         <v>44</v>
       </c>
